--- a/biology/Médecine/4-Chlorodeshydrométhyltestostérone/4-Chlorodeshydrométhyltestostérone.xlsx
+++ b/biology/Médecine/4-Chlorodeshydrométhyltestostérone/4-Chlorodeshydrométhyltestostérone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4-Chlorodeshydrom%C3%A9thyltestost%C3%A9rone</t>
+          <t>4-Chlorodeshydrométhyltestostérone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La 4-chlorodeshydrométhyltestostérone ou Oral-Turinabol (nom commercial) est un composé organique similaire au dianabol produit en 1965 par Jenapharm Gmbh. Ce produit a été employé intensivement par les sportifs professionnels de l'Allemagne de l'Est, ou leur a été administré à leur insu, pendant les décennies 1970 et 1980[2],[3].
-Son utilisation a donné lieu à deux disqualifications d'athlètes pour dopage lors des Jeux olympiques de 2012 à Londres[4],[5].
-Il est réputé comme indétectable si l’on arrête le traitement cinq jours avant les épreuves[2]. 
-En 2012, une technique est mise au point pour détecter la présence de dérivé de testostérone dans les urines[6].  D’où les contrôles positifs à rebours sur les Jeux olympiques de 2008 à Pékin et de 2012 à Londres.
+La 4-chlorodeshydrométhyltestostérone ou Oral-Turinabol (nom commercial) est un composé organique similaire au dianabol produit en 1965 par Jenapharm Gmbh. Ce produit a été employé intensivement par les sportifs professionnels de l'Allemagne de l'Est, ou leur a été administré à leur insu, pendant les décennies 1970 et 1980,.
+Son utilisation a donné lieu à deux disqualifications d'athlètes pour dopage lors des Jeux olympiques de 2012 à Londres,.
+Il est réputé comme indétectable si l’on arrête le traitement cinq jours avant les épreuves. 
+En 2012, une technique est mise au point pour détecter la présence de dérivé de testostérone dans les urines.  D’où les contrôles positifs à rebours sur les Jeux olympiques de 2008 à Pékin et de 2012 à Londres.
 </t>
         </is>
       </c>
